--- a/Plotting/result_data_long2.xlsx
+++ b/Plotting/result_data_long2.xlsx
@@ -736,7 +736,11 @@
           <t>Z:\PyHub\PyHub_results\CM\Cluster_integration\Chemelot_ammonia\20241014153839_minC_highCO2tax-1\optimization_results.h5</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Z:\PyHub\PyHub_results\CM\Cluster_integration\Chemelot_ammonia\20241018162237_minE_refCO2tax-1\optimization_results.h5</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
@@ -819,7 +823,9 @@
       <c r="I6" t="n">
         <v>1261644506.750287</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>2041889047.222214</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
@@ -884,7 +890,9 @@
       <c r="I7" t="n">
         <v>255997.6039909462</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>124125.0915880971</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
@@ -943,7 +951,9 @@
       <c r="I8" t="n">
         <v>758.1809400043163</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>750.3823284724332</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
@@ -996,7 +1006,9 @@
       <c r="I9" t="n">
         <v>32.92337843927213</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>35.82122676486085</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -1055,7 +1067,9 @@
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>550</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
@@ -1120,7 +1134,9 @@
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>550</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
@@ -1185,7 +1201,9 @@
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>10000</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -1244,7 +1262,9 @@
       <c r="I13" t="n">
         <v>947.4353507704066</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1030.826669492398</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
@@ -1297,7 +1317,9 @@
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
@@ -1350,7 +1372,9 @@
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
@@ -1403,7 +1427,9 @@
       <c r="I16" t="n">
         <v>6390.718070676395</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>218000</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
@@ -1462,7 +1488,9 @@
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>6414</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
@@ -1527,7 +1555,9 @@
       <c r="I18" t="n">
         <v>14801.38438034215</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>369824</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
@@ -1586,7 +1616,9 @@
       <c r="I19" t="n">
         <v>538.279771823615</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>133565</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
@@ -1639,7 +1671,9 @@
       <c r="I20" t="n">
         <v>552.2607074453332</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>596.5782045371107</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
@@ -1698,7 +1732,9 @@
       <c r="I21" t="n">
         <v>552.2607074454035</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>10000</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
@@ -1763,7 +1799,9 @@
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
@@ -1828,7 +1866,9 @@
       <c r="I23" t="n">
         <v>57.5</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>57.5</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
@@ -1887,7 +1927,9 @@
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
@@ -1940,7 +1982,9 @@
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
@@ -1999,7 +2043,9 @@
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
@@ -2064,7 +2110,9 @@
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
@@ -2129,7 +2177,9 @@
       <c r="I28" t="n">
         <v>1000</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1000</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
@@ -2194,7 +2244,9 @@
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
@@ -2259,7 +2311,9 @@
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
@@ -2324,7 +2378,9 @@
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
@@ -2389,7 +2445,9 @@
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
@@ -2454,7 +2512,9 @@
       <c r="I33" t="n">
         <v>123.5834932207081</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>122.3123195410066</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
@@ -2513,7 +2573,9 @@
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
@@ -2566,7 +2628,9 @@
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
@@ -2625,7 +2689,9 @@
       <c r="I36" t="n">
         <v>552.2607074454035</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>596.5782045371107</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
@@ -2690,7 +2756,9 @@
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
@@ -2749,7 +2817,9 @@
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
@@ -2802,7 +2872,9 @@
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
@@ -2855,7 +2927,9 @@
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
@@ -2908,7 +2982,9 @@
       <c r="I41" t="n">
         <v>153.365945405638</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>155.7596121828768</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
@@ -2967,7 +3043,9 @@
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
@@ -3032,7 +3110,9 @@
       <c r="I43" t="n">
         <v>108.007629987848</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>117.5142403221334</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
